--- a/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-medication-ingredientstrength-strengthtype-cs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-medication-ingredientstrength-strengthtype-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T12:51:35+00:00</t>
+    <t>2022-08-15T09:08:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-medication-ingredientstrength-strengthtype-cs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-medication-ingredientstrength-strengthtype-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-15T09:08:26+00:00</t>
+    <t>2022-08-17T12:11:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-medication-ingredientstrength-strengthtype-cs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-medication-ingredientstrength-strengthtype-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>JP Core Medication IngredientStrength StrengthType</t>
+    <t>JP Core Medication IngredientStrength StrengthType CodeSystem</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-17T12:11:07+00:00</t>
+    <t>2022-08-29T14:36:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Value Set (all codes)</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationIngredientStrengthStrengthType_VS</t>
   </si>
   <si>
     <t>Hierarchy</t>
@@ -405,46 +408,48 @@
       <c r="A16" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" t="s" s="2">
+        <v>28</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -462,39 +467,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2"/>
     </row>

--- a/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-medication-ingredientstrength-strengthtype-cs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-medication-ingredientstrength-strengthtype-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Property</t>
   </si>
@@ -27,6 +27,12 @@
     <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationIngredientStrengthStrengthType_CS</t>
   </si>
   <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>id: urn:oid:1.2.392.100495.20.2.22</t>
+  </si>
+  <si>
     <t>Version</t>
   </si>
   <si>
@@ -57,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T14:36:41+00:00</t>
+    <t>2022-09-02T06:00:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -278,7 +284,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -340,15 +346,15 @@
       <c r="A7" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s" s="2">
         <v>14</v>
       </c>
+      <c r="B8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
@@ -386,22 +392,22 @@
       <c r="A13" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>16</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -416,40 +422,48 @@
       <c r="A17" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" t="s" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s" s="2">
         <v>33</v>
       </c>
+      <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" t="s" s="2">
+        <v>35</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="B22" t="s" s="2">
         <v>36</v>
+      </c>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -467,39 +481,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2"/>
     </row>

--- a/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-medication-ingredientstrength-strengthtype-cs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-medication-ingredientstrength-strengthtype-cs.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-02T06:00:18+00:00</t>
+    <t>2022-09-14T09:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-medication-ingredientstrength-strengthtype-cs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-medication-ingredientstrength-strengthtype-cs.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:35:02+00:00</t>
+    <t>2022-09-16T11:30:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-medication-ingredientstrength-strengthtype-cs.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/CodeSystem-jp-medication-ingredientstrength-strengthtype-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationIngredientStrengthStrengthType_CS</t>
+    <t>urn:oid:1.2.392.100495.20.2.22</t>
   </si>
   <si>
     <t>Identifier</t>
@@ -54,16 +54,19 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T11:30:59+00:00</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +108,7 @@
     <t>Value Set (all codes)</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationIngredientStrengthStrengthType_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationIngredientStrengthStrengthType_VS</t>
   </si>
   <si>
     <t>Hierarchy</t>
@@ -354,116 +357,118 @@
       <c r="A8" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" t="s" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -481,39 +486,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2"/>
     </row>
